--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N2">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q2">
-        <v>8758.559575540492</v>
+        <v>54325.14101558999</v>
       </c>
       <c r="R2">
-        <v>8758.559575540492</v>
+        <v>488926.2691403099</v>
       </c>
       <c r="S2">
-        <v>0.06518603004525958</v>
+        <v>0.167814811873176</v>
       </c>
       <c r="T2">
-        <v>0.06518603004525958</v>
+        <v>0.167814811873176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N3">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P3">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q3">
-        <v>6516.419736897381</v>
+        <v>6961.265966493847</v>
       </c>
       <c r="R3">
-        <v>6516.419736897381</v>
+        <v>62651.39369844462</v>
       </c>
       <c r="S3">
-        <v>0.04849878899530143</v>
+        <v>0.02150392096048239</v>
       </c>
       <c r="T3">
-        <v>0.04849878899530143</v>
+        <v>0.02150392096048239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N4">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O4">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P4">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q4">
-        <v>64.23746555190036</v>
+        <v>66.27066379924244</v>
       </c>
       <c r="R4">
-        <v>64.23746555190036</v>
+        <v>596.4359741931819</v>
       </c>
       <c r="S4">
-        <v>0.0004780906407477509</v>
+        <v>0.0002047155105403012</v>
       </c>
       <c r="T4">
-        <v>0.0004780906407477509</v>
+        <v>0.0002047155105403012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N5">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q5">
-        <v>19205.29229068419</v>
+        <v>19894.31104599458</v>
       </c>
       <c r="R5">
-        <v>19205.29229068419</v>
+        <v>179048.7994139512</v>
       </c>
       <c r="S5">
-        <v>0.142936375495428</v>
+        <v>0.06145515691476883</v>
       </c>
       <c r="T5">
-        <v>0.142936375495428</v>
+        <v>0.06145515691476884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N6">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q6">
-        <v>14857.60744529067</v>
+        <v>90578.37111560271</v>
       </c>
       <c r="R6">
-        <v>14857.60744529067</v>
+        <v>815205.3400404244</v>
       </c>
       <c r="S6">
-        <v>0.1105785074561902</v>
+        <v>0.2798040101576808</v>
       </c>
       <c r="T6">
-        <v>0.1105785074561902</v>
+        <v>0.2798040101576809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N7">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P7">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q7">
-        <v>11054.14715336808</v>
+        <v>11606.78316447526</v>
       </c>
       <c r="R7">
-        <v>11054.14715336808</v>
+        <v>104461.0484802774</v>
       </c>
       <c r="S7">
-        <v>0.08227105864261991</v>
+        <v>0.03585430422794841</v>
       </c>
       <c r="T7">
-        <v>0.08227105864261991</v>
+        <v>0.03585430422794842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N8">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O8">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P8">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q8">
-        <v>108.9694073801651</v>
+        <v>110.495594994636</v>
       </c>
       <c r="R8">
-        <v>108.9694073801651</v>
+        <v>994.4603549517238</v>
       </c>
       <c r="S8">
-        <v>0.0008110104181210904</v>
+        <v>0.0003413299466911306</v>
       </c>
       <c r="T8">
-        <v>0.0008110104181210904</v>
+        <v>0.0003413299466911306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H9">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N9">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O9">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P9">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q9">
-        <v>32578.95219710763</v>
+        <v>33170.54047768055</v>
       </c>
       <c r="R9">
-        <v>32578.95219710763</v>
+        <v>298534.8642991249</v>
       </c>
       <c r="S9">
-        <v>0.2424705270823805</v>
+        <v>0.1024665174526851</v>
       </c>
       <c r="T9">
-        <v>0.2424705270823805</v>
+        <v>0.1024665174526851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H10">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N10">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O10">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P10">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q10">
-        <v>6506.617845946227</v>
+        <v>46666.59437427529</v>
       </c>
       <c r="R10">
-        <v>6506.617845946227</v>
+        <v>419999.3493684776</v>
       </c>
       <c r="S10">
-        <v>0.04842583791784041</v>
+        <v>0.1441569337746111</v>
       </c>
       <c r="T10">
-        <v>0.04842583791784041</v>
+        <v>0.1441569337746112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H11">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N11">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P11">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q11">
-        <v>4840.96187119401</v>
+        <v>5979.893822946347</v>
       </c>
       <c r="R11">
-        <v>4840.96187119401</v>
+        <v>53819.04440651711</v>
       </c>
       <c r="S11">
-        <v>0.03602910767026841</v>
+        <v>0.01847238199770754</v>
       </c>
       <c r="T11">
-        <v>0.03602910767026841</v>
+        <v>0.01847238199770754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H12">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N12">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O12">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P12">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q12">
-        <v>47.72116192548224</v>
+        <v>56.92808391506444</v>
       </c>
       <c r="R12">
-        <v>47.72116192548224</v>
+        <v>512.3527552355799</v>
       </c>
       <c r="S12">
-        <v>0.0003551672016659449</v>
+        <v>0.0001758555157687548</v>
       </c>
       <c r="T12">
-        <v>0.0003551672016659449</v>
+        <v>0.0001758555157687548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H13">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N13">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O13">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P13">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q13">
-        <v>14267.35714673355</v>
+        <v>17089.68861530733</v>
       </c>
       <c r="R13">
-        <v>14267.35714673355</v>
+        <v>153807.197537766</v>
       </c>
       <c r="S13">
-        <v>0.106185539255869</v>
+        <v>0.05279144842212076</v>
       </c>
       <c r="T13">
-        <v>0.106185539255869</v>
+        <v>0.05279144842212078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H14">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N14">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O14">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P14">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q14">
-        <v>3944.052656787213</v>
+        <v>24883.16830469212</v>
       </c>
       <c r="R14">
-        <v>3944.052656787213</v>
+        <v>223948.5147422291</v>
       </c>
       <c r="S14">
-        <v>0.02935381471896326</v>
+        <v>0.07686614576227499</v>
       </c>
       <c r="T14">
-        <v>0.02935381471896326</v>
+        <v>0.07686614576227502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H15">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N15">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P15">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q15">
-        <v>2934.398328216513</v>
+        <v>3188.548606036426</v>
       </c>
       <c r="R15">
-        <v>2934.398328216513</v>
+        <v>28696.93745432783</v>
       </c>
       <c r="S15">
-        <v>0.02183941045763533</v>
+        <v>0.009849687906321746</v>
       </c>
       <c r="T15">
-        <v>0.02183941045763533</v>
+        <v>0.009849687906321748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H16">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N16">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O16">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P16">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q16">
-        <v>28.92666819128361</v>
+        <v>30.35471330865</v>
       </c>
       <c r="R16">
-        <v>28.92666819128361</v>
+        <v>273.19241977785</v>
       </c>
       <c r="S16">
-        <v>0.0002152882155522595</v>
+        <v>9.37681966052043E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002152882155522595</v>
+        <v>9.376819660520433E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H17">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N17">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O17">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P17">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q17">
-        <v>8648.303802714458</v>
+        <v>9112.41978960195</v>
       </c>
       <c r="R17">
-        <v>8648.303802714458</v>
+        <v>82011.77810641757</v>
       </c>
       <c r="S17">
-        <v>0.06436544578615694</v>
+        <v>0.02814901138061683</v>
       </c>
       <c r="T17">
-        <v>0.06436544578615694</v>
+        <v>0.02814901138061685</v>
       </c>
     </row>
   </sheetData>
